--- a/src/main/resources/excel/commentelab_output.xlsx
+++ b/src/main/resources/excel/commentelab_output.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E917B8-D03A-45E4-9311-80A874F3E52C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A55811-1CC6-4D23-BC4E-30EE6A13B4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author/>
     <author>Me</author>
   </authors>
   <commentList>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,19 +81,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -411,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +444,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/commentelab_output.xlsx
+++ b/src/main/resources/excel/commentelab_output.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A55811-1CC6-4D23-BC4E-30EE6A13B4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028B2493-10CD-48CC-B893-93EABD7BA9C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>Me</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="1">
+    <comment ref="A4" authorId="1">
       <text>
         <t>Hello</t>
       </text>
@@ -36,30 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>comment here</t>
-  </si>
-  <si>
-    <t>PRINT l2</t>
-  </si>
-  <si>
-    <t>PRINT l1</t>
   </si>
   <si>
     <t>Start</t>
   </si>
   <si>
-    <t>${obj}</t>
+    <t>not here</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -399,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,33 +400,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="true">
-      <c r="A6" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" t="s" s="0">
-        <v>7</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
